--- a/Results/Calculation/dp-partial-ner-elmo-money.xlsx
+++ b/Results/Calculation/dp-partial-ner-elmo-money.xlsx
@@ -432,25 +432,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>0.6899999999999999</v>
+        <v>0.6717948717948717</v>
       </c>
       <c r="G2">
-        <v>0.83</v>
+        <v>0.8675496688741722</v>
       </c>
       <c r="H2">
-        <v>0.75</v>
+        <v>0.7572254335260115</v>
       </c>
       <c r="I2">
         <v>0.82</v>
@@ -461,28 +461,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C3">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>0.72</v>
+        <v>0.7243816254416962</v>
       </c>
       <c r="G3">
-        <v>0.9399999999999999</v>
+        <v>0.9447004608294931</v>
       </c>
       <c r="H3">
-        <v>0.82</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="I3">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C4">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F4">
-        <v>0.82</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G4">
-        <v>0.73</v>
+        <v>0.8116883116883117</v>
       </c>
       <c r="H4">
-        <v>0.77</v>
+        <v>0.8223684210526316</v>
       </c>
       <c r="I4">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,25 +519,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5">
-        <v>0.82</v>
+        <v>0.8041237113402062</v>
       </c>
       <c r="G5">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="H5">
-        <v>0.7</v>
+        <v>0.6872246696035242</v>
       </c>
       <c r="I5">
         <v>0.85</v>
